--- a/BrightServ/Permissions/BrightServ_Workflow_Permissions.xlsx
+++ b/BrightServ/Permissions/BrightServ_Workflow_Permissions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ping\Documents\My Archive\BrightClaim\BrightServ\Implemenation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ping\Source\Repos\BC\BrightServ\Permissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
   <si>
     <t>Security Role</t>
   </si>
@@ -105,15 +105,6 @@
     <t>Dispatchers and CSRs groups</t>
   </si>
   <si>
-    <t>SuperUsers group</t>
-  </si>
-  <si>
-    <t>Vendor Assigned to Assignment</t>
-  </si>
-  <si>
-    <t>By default, task recipients and form creators are granted read permission on the process, and read and write permission on the relevant activity.</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -126,21 +117,12 @@
     <t>Workflow: BrightServ Dispatch Process</t>
   </si>
   <si>
-    <t>Workflow: BrightServ Inspection Estimate Process</t>
-  </si>
-  <si>
-    <t>Workflow: BrightServ Vendor Process  (TODO: Renamed to Vendor Acceptance Process)</t>
-  </si>
-  <si>
     <t>Workflows: Common Components</t>
   </si>
   <si>
     <t>Only holds shared data modals and common forms. No permissions needed</t>
   </si>
   <si>
-    <t>Workflow: Edit Member</t>
-  </si>
-  <si>
     <t>Workflow: Find Customer Claim</t>
   </si>
   <si>
@@ -162,22 +144,85 @@
     <t xml:space="preserve">Make sure SERVICE USER has Administrator right to this workflow since once Email Listner intecepts and email, SERVICE USER will be sending a task to Disptcher queue </t>
   </si>
   <si>
-    <t>All internal groups (include children)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No need to assign permission to selected vendor. Implicit Read-Write permisson since assigned vendor is the recipient of the Vendor Acceptance task </t>
-  </si>
-  <si>
-    <t>No need to assign permission to selected vendor. Implicit Read-Write permisson since assigned vendor is the recipient of the Vendor Acceptance task</t>
-  </si>
-  <si>
     <t xml:space="preserve">BrightServ Courtesy Call </t>
   </si>
   <si>
-    <t>PreCSR Assigned to Assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No need to assign permission to selected CS. Implicit Read-Write permisson since assigned PreCSR is the recipient of the Courtesy Call  task </t>
+    <t>SuperUsers group;  Services Users</t>
+  </si>
+  <si>
+    <t>BrightServ (inlcude childen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow: BrightServ Vendor Acceptance Process </t>
+  </si>
+  <si>
+    <t>CSR group with Manager role</t>
+  </si>
+  <si>
+    <t>CSR group</t>
+  </si>
+  <si>
+    <t>Vendors (include children)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All internal users (include Children) </t>
+  </si>
+  <si>
+    <t>Workflow: BrightServ Vendor Process</t>
+  </si>
+  <si>
+    <t>Workflow: BrightServ Reports</t>
+  </si>
+  <si>
+    <t>Workflow: Communication Module</t>
+  </si>
+  <si>
+    <t>SuperUsers group; Services User</t>
+  </si>
+  <si>
+    <t>All BrightServ groups  (include children)</t>
+  </si>
+  <si>
+    <t>BrightSerPowerUsers</t>
+  </si>
+  <si>
+    <t>Workflow: BrightServ Review Process</t>
+  </si>
+  <si>
+    <t>Dispatchers, CSRs and Reviewer groups</t>
+  </si>
+  <si>
+    <t>Vendors (inlcude children)</t>
+  </si>
+  <si>
+    <t>Workflow: BrightServ CSR Process</t>
+  </si>
+  <si>
+    <t>CSR groups</t>
+  </si>
+  <si>
+    <t>BrightServ (inlcude children)</t>
+  </si>
+  <si>
+    <t>Vendors (include Children)</t>
+  </si>
+  <si>
+    <t>When vendor rejects, it goes back to Dispatchers quence so Vendors need to be able to start the workflow)</t>
+  </si>
+  <si>
+    <t>SuperUsers group; Service User</t>
+  </si>
+  <si>
+    <t>StartAndExecute</t>
+  </si>
+  <si>
+    <t>Actually No need to assign permission to selected vendor. Implicit Read-Write permisson since assigned vendor is the recipient of the Vendor Acceptance task . By default, task recipients and form creators are granted read permission on the process, and read and write permission on the relevant activity.</t>
+  </si>
+  <si>
+    <t>Vendors (inlcude children); Reviewers group</t>
+  </si>
+  <si>
+    <t>Workflow: Edit Customer</t>
   </si>
 </sst>
 </file>
@@ -651,16 +696,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="75.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -673,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -687,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -695,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +761,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,16 +769,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5"/>
     </row>
@@ -742,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +819,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5"/>
     </row>
@@ -783,36 +828,36 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -820,236 +865,438 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>2</v>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
